--- a/output/nswhealthitocorder.xlsx
+++ b/output/nswhealthitocorder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$159</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6546" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5715" uniqueCount="658">
   <si>
     <t>Path</t>
   </si>
@@ -950,6 +950,9 @@
     <t>URL namespace assigned by the local prescription system.</t>
   </si>
   <si>
+    <t>http://ns.health.nsw.gov.au/fhir/ehealth/itoc/id/scriptid</t>
+  </si>
+  <si>
     <t>Prescription number</t>
   </si>
   <si>
@@ -966,6 +969,9 @@
   </si>
   <si>
     <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>NSW Health</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -1730,13 +1736,32 @@
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.modifierExtension</t>
+    <t>MedicationRequest.dispenseRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Requested dispensing</t>
+  </si>
+  <si>
+    <t>Indicates the specific details for the dispense or medication supply part of a medication request (also known as a Medication Prescription or Medication Order).  Note that this information is not always sent with the order.  There may be in some settings (e.g. hospitals) institutional or system support for completing the dispense details in the pharmacy department.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
+  </si>
+  <si>
+    <t>component.supplyEvent</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -1753,627 +1778,194 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
+    <t>MedicationRequest.dispenseRequest.initialFill</t>
+  </si>
+  <si>
+    <t>First fill details</t>
+  </si>
+  <si>
+    <t>Indicates the quantity or duration for the first dispense of the medication.</t>
+  </si>
+  <si>
+    <t>If populating this element, either the quantity or the duration must be included.</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration -&gt; ActRelationship[sequenceNumber = '1'] -&gt; Supply</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
-    <t>The order of the dosage instructions</t>
-  </si>
-  <si>
-    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
-  </si>
-  <si>
-    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>TQ1-1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.text</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG.</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.</t>
-  </si>
-  <si>
-    <t>Dosage.text</t>
-  </si>
-  <si>
-    <t>RXO-6; RXE-21</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.additionalInstruction</t>
-  </si>
-  <si>
-    <t>Supplemental instruction or warnings to the patient - e.g. "with meals", "may cause drowsiness"</t>
-  </si>
-  <si>
-    <t>Supplemental instructions to the patient on how to take the medication  (e.g. "with meals" or"take half to one hour before food") or warnings for the patient about the medication (e.g. "may cause drowsiness" or "avoid exposure of skin to direct sunlight or sunlamps").</t>
-  </si>
-  <si>
-    <t>Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or "immediately following drug x") should be populated in dosage.text.</t>
-  </si>
-  <si>
-    <t>Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding.system}
+    <t>First fill quantity</t>
+  </si>
+  <si>
+    <t>The amount or quantity to provide as part of the first dispense.</t>
+  </si>
+  <si>
+    <t>Supply.quantity[moodCode=RQO]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
 </t>
   </si>
   <si>
-    <t>Dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>RXO-7</t>
-  </si>
-  <si>
-    <t>snomedAdditionalInstruction</t>
-  </si>
-  <si>
-    <t>SNOMED CT Additional Instruction</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.patientInstruction</t>
-  </si>
-  <si>
-    <t>Patient or consumer oriented instructions</t>
-  </si>
-  <si>
-    <t>Instructions in terms that are understood by the patient or consumer.</t>
-  </si>
-  <si>
-    <t>Dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.timing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timing
+    <t>First fill duration</t>
+  </si>
+  <si>
+    <t>The length of time that the first dispense is expected to last.</t>
+  </si>
+  <si>
+    <t>Supply.effectivetime[moodCode=RQO]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.dispenseInterval</t>
+  </si>
+  <si>
+    <t>Minimum period of time between dispenses</t>
+  </si>
+  <si>
+    <t>The minimum period of time that must occur between dispenses of the medication.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.validityPeriod</t>
+  </si>
+  <si>
+    <t>Time period supply is authorized for</t>
+  </si>
+  <si>
+    <t>This indicates the validity period of a prescription (stale dating the Prescription).</t>
+  </si>
+  <si>
+    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
 </t>
   </si>
   <si>
-    <t>When medication should be administered</t>
-  </si>
-  <si>
-    <t>When medication should be administered.</t>
-  </si>
-  <si>
-    <t>This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
-  </si>
-  <si>
-    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.timing</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
+    <t>Maximum repeats authorised</t>
+  </si>
+  <si>
+    <t>An integer indicating the number of times, in addition to the original dispense, (aka refills or repeats) that the patient can receive the prescribed medication. Usage Notes: This integer does not include the original order dispense. This means that if an order indicates dispense 30 tablets plus "3 repeats", then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.  A prescriber may explicitly say that zero refills are permitted after the initial dispense.</t>
+  </si>
+  <si>
+    <t>If displaying "number of authorized fills", add 1 to this number.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>
+  </si>
+  <si>
+    <t>repeatNumber</t>
+  </si>
+  <si>
+    <t>RXE-12-Number of Refills</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.quantity</t>
+  </si>
+  <si>
+    <t>Amount of medication to supply per dispense</t>
+  </si>
+  <si>
+    <t>The amount that is to be dispensed for one fill.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/DaysSupply</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>RXD-4-Actual Dispense Amount / RXD-5.1-Actual Dispense Units.code / RXD-5.3-Actual Dispense Units.name of coding system</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
+  </si>
+  <si>
+    <t>Number of days supply per dispense</t>
+  </si>
+  <si>
+    <t>Identifies the period time over which the supplied product is expected to be used, or the length of time the dispense is expected to last.</t>
+  </si>
+  <si>
+    <t>In some situations, this attribute may be used instead of quantity to identify the amount supplied by how long it is expected to last, rather than the physical quantity issued, e.g. 90 days supply of medication (based on an ordered dosage). When possible, it is always better to specify quantity, as this tends to be more precise. expectedSupplyDuration will always be an estimate that can be influenced by external factors.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
+  </si>
+  <si>
+    <t>expectedUseTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.performer</t>
+  </si>
+  <si>
+    <t>Intended dispenser</t>
+  </si>
+  <si>
+    <t>Indicates the intended dispensing Organization specified by the prescriber.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SPLY, moodCode=RQO] .participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution</t>
+  </si>
+  <si>
+    <t>Brand substitution details</t>
+  </si>
+  <si>
+    <t>Indicates whether or not substitution can or should be part of the dispense. In some cases, substitution must happen, in other cases substitution must not happen. This block explains the prescriber's intent. If nothing is specified substitution may be done.</t>
+  </si>
+  <si>
+    <t>specific values within Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
+  </si>
+  <si>
+    <t>subjectOf.substitutionPersmission</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]</t>
   </si>
   <si>
     <t>boolean
 CodeableConcept</t>
-  </si>
-  <si>
-    <t>Take "as needed" (for x)</t>
-  </si>
-  <si>
-    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>TQ1-9</t>
-  </si>
-  <si>
-    <t>asNeededCodeableConcept</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.site</t>
-  </si>
-  <si>
-    <t>Body site to administer to</t>
-  </si>
-  <si>
-    <t>Body site to administer to.</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.route</t>
-  </si>
-  <si>
-    <t>snomedRoute</t>
-  </si>
-  <si>
-    <t>Route of Administration (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>How drug should enter body.</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/route-of-administration-1</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.method</t>
-  </si>
-  <si>
-    <t>snomedMethod</t>
-  </si>
-  <si>
-    <t>SNOMED CT Administration Method</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
-  </si>
-  <si>
-    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element
-</t>
-  </si>
-  <si>
-    <t>Amount of medication administered</t>
-  </si>
-  <si>
-    <t>The amount of medication administered.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate</t>
-  </si>
-  <si>
-    <t>TQ1-2</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>The kind of dose or rate specified</t>
-  </si>
-  <si>
-    <t>The kind of dose or rate specified, for example, ordered or calculated.</t>
-  </si>
-  <si>
-    <t>If the type is not populated, assume to be "ordered".</t>
-  </si>
-  <si>
-    <t>The kind of dose or rate specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>RXO-21; RXE-23</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t>RXO-2, RXE-3</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-RangeQuantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time.</t>
-  </si>
-  <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.--It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x]</t>
-  </si>
-  <si>
-    <t>.rateQuantity</t>
-  </si>
-  <si>
-    <t>RXE22, RXE23, RXE-24</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>.maxDoseQuantity</t>
-  </si>
-  <si>
-    <t>RXO-23, RXE-19</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>not supported</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Requested dispensing</t>
-  </si>
-  <si>
-    <t>Indicates the specific details for the dispense or medication supply part of a medication request (also known as a Medication Prescription or Medication Order).  Note that this information is not always sent with the order.  There may be in some settings (e.g. hospitals) institutional or system support for completing the dispense details in the pharmacy department.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
-  </si>
-  <si>
-    <t>component.supplyEvent</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill</t>
-  </si>
-  <si>
-    <t>First fill details</t>
-  </si>
-  <si>
-    <t>Indicates the quantity or duration for the first dispense of the medication.</t>
-  </si>
-  <si>
-    <t>If populating this element, either the quantity or the duration must be included.</t>
-  </si>
-  <si>
-    <t>SubstanceAdministration -&gt; ActRelationship[sequenceNumber = '1'] -&gt; Supply</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
-  </si>
-  <si>
-    <t>First fill quantity</t>
-  </si>
-  <si>
-    <t>The amount or quantity to provide as part of the first dispense.</t>
-  </si>
-  <si>
-    <t>Supply.quantity[moodCode=RQO]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration
-</t>
-  </si>
-  <si>
-    <t>First fill duration</t>
-  </si>
-  <si>
-    <t>The length of time that the first dispense is expected to last.</t>
-  </si>
-  <si>
-    <t>Supply.effectivetime[moodCode=RQO]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.dispenseInterval</t>
-  </si>
-  <si>
-    <t>Minimum period of time between dispenses</t>
-  </si>
-  <si>
-    <t>The minimum period of time that must occur between dispenses of the medication.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.validityPeriod</t>
-  </si>
-  <si>
-    <t>Time period supply is authorized for</t>
-  </si>
-  <si>
-    <t>This indicates the validity period of a prescription (stale dating the Prescription).</t>
-  </si>
-  <si>
-    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt
-</t>
-  </si>
-  <si>
-    <t>Maximum repeats authorised</t>
-  </si>
-  <si>
-    <t>An integer indicating the number of times, in addition to the original dispense, (aka refills or repeats) that the patient can receive the prescribed medication. Usage Notes: This integer does not include the original order dispense. This means that if an order indicates dispense 30 tablets plus "3 repeats", then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.  A prescriber may explicitly say that zero refills are permitted after the initial dispense.</t>
-  </si>
-  <si>
-    <t>If displaying "number of authorized fills", add 1 to this number.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>
-  </si>
-  <si>
-    <t>repeatNumber</t>
-  </si>
-  <si>
-    <t>RXE-12-Number of Refills</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.quantity</t>
-  </si>
-  <si>
-    <t>Amount of medication to supply per dispense</t>
-  </si>
-  <si>
-    <t>The amount that is to be dispensed for one fill.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/DaysSupply</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>RXD-4-Actual Dispense Amount / RXD-5.1-Actual Dispense Units.code / RXD-5.3-Actual Dispense Units.name of coding system</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
-  </si>
-  <si>
-    <t>Number of days supply per dispense</t>
-  </si>
-  <si>
-    <t>Identifies the period time over which the supplied product is expected to be used, or the length of time the dispense is expected to last.</t>
-  </si>
-  <si>
-    <t>In some situations, this attribute may be used instead of quantity to identify the amount supplied by how long it is expected to last, rather than the physical quantity issued, e.g. 90 days supply of medication (based on an ordered dosage). When possible, it is always better to specify quantity, as this tends to be more precise. expectedSupplyDuration will always be an estimate that can be influenced by external factors.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
-  </si>
-  <si>
-    <t>expectedUseTime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.performer</t>
-  </si>
-  <si>
-    <t>Intended dispenser</t>
-  </si>
-  <si>
-    <t>Indicates the intended dispensing Organization specified by the prescriber.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SPLY, moodCode=RQO] .participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution</t>
-  </si>
-  <si>
-    <t>Brand substitution details</t>
-  </si>
-  <si>
-    <t>Indicates whether or not substitution can or should be part of the dispense. In some cases, substitution must happen, in other cases substitution must not happen. This block explains the prescriber's intent. If nothing is specified substitution may be done.</t>
-  </si>
-  <si>
-    <t>specific values within Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
-  </si>
-  <si>
-    <t>subjectOf.substitutionPersmission</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.allowed[x]</t>
   </si>
   <si>
     <t>Brand substitution flag</t>
@@ -2628,7 +2220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN182"/>
+  <dimension ref="A1:AN159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2637,7 +2229,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.25390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.15234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.62890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2647,7 +2239,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.03515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2660,10 +2252,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="156.88671875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.21875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -7371,7 +6963,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>43</v>
@@ -9235,7 +8827,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>44</v>
@@ -9335,10 +8927,10 @@
         <v>54</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>246</v>
@@ -9561,10 +9153,10 @@
         <v>259</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>262</v>
@@ -10243,10 +9835,10 @@
         <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>291</v>
@@ -10257,7 +9849,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>44</v>
@@ -10331,7 +9923,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10357,13 +9949,13 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10392,10 +9984,10 @@
         <v>157</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -10413,7 +10005,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>52</v>
@@ -10428,16 +10020,16 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -10445,7 +10037,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10471,13 +10063,13 @@
         <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10503,13 +10095,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -10527,7 +10119,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -10542,13 +10134,13 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
@@ -10559,7 +10151,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10585,13 +10177,13 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10620,10 +10212,10 @@
         <v>157</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -10641,7 +10233,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>52</v>
@@ -10656,16 +10248,16 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -10673,7 +10265,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10699,13 +10291,13 @@
         <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10731,13 +10323,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -10755,7 +10347,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10773,13 +10365,13 @@
         <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -10787,7 +10379,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10813,10 +10405,10 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10846,10 +10438,10 @@
         <v>157</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>44</v>
@@ -10867,7 +10459,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10882,16 +10474,16 @@
         <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10899,7 +10491,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10925,13 +10517,13 @@
         <v>217</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10981,7 +10573,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -11002,7 +10594,7 @@
         <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
@@ -11013,7 +10605,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11036,13 +10628,13 @@
         <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -11093,7 +10685,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -11114,7 +10706,7 @@
         <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -11125,7 +10717,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11148,16 +10740,16 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11183,29 +10775,29 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>52</v>
@@ -11220,27 +10812,27 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>44</v>
@@ -11265,13 +10857,13 @@
         <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11297,13 +10889,13 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>44</v>
@@ -11321,7 +10913,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>52</v>
@@ -11336,24 +10928,24 @@
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11465,7 +11057,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11579,7 +11171,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11651,7 +11243,7 @@
         <v>44</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB79" s="2"/>
       <c r="AC79" t="s" s="2">
@@ -11693,10 +11285,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>44</v>
@@ -11721,10 +11313,10 @@
         <v>175</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>178</v>
@@ -11759,7 +11351,7 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -11809,7 +11401,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11921,7 +11513,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12035,7 +11627,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12077,7 +11669,7 @@
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>44</v>
@@ -12151,7 +11743,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12265,7 +11857,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12379,7 +11971,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12493,7 +12085,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12609,10 +12201,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>44</v>
@@ -12637,10 +12229,10 @@
         <v>175</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>178</v>
@@ -12675,7 +12267,7 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>44</v>
@@ -12725,7 +12317,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12837,7 +12429,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12951,7 +12543,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12993,7 +12585,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -13067,7 +12659,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13181,7 +12773,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13295,7 +12887,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13409,7 +13001,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13525,10 +13117,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>44</v>
@@ -13553,7 +13145,7 @@
         <v>175</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>177</v>
@@ -13591,7 +13183,7 @@
       </c>
       <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>44</v>
@@ -13641,7 +13233,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13753,7 +13345,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13865,10 +13457,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>44</v>
@@ -13890,13 +13482,13 @@
         <v>44</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13979,7 +13571,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14021,7 +13613,7 @@
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>44</v>
@@ -14095,7 +13687,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14209,7 +13801,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14323,7 +13915,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14437,7 +14029,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14553,10 +14145,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>44</v>
@@ -14581,7 +14173,7 @@
         <v>175</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>177</v>
@@ -14619,7 +14211,7 @@
       </c>
       <c r="X105" s="2"/>
       <c r="Y105" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>44</v>
@@ -14669,7 +14261,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14781,7 +14373,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14895,7 +14487,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14937,7 +14529,7 @@
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R108" t="s" s="2">
         <v>44</v>
@@ -15011,7 +14603,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15125,7 +14717,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15239,7 +14831,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15353,7 +14945,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15469,7 +15061,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15495,10 +15087,10 @@
         <v>54</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>228</v>
@@ -15585,10 +15177,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>44</v>
@@ -15610,16 +15202,16 @@
         <v>53</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15669,7 +15261,7 @@
         <v>44</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>52</v>
@@ -15684,24 +15276,24 @@
         <v>64</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15724,16 +15316,16 @@
         <v>53</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15783,7 +15375,7 @@
         <v>44</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>52</v>
@@ -15798,24 +15390,24 @@
         <v>64</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15838,16 +15430,16 @@
         <v>44</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15897,7 +15489,7 @@
         <v>44</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15912,24 +15504,24 @@
         <v>64</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15952,13 +15544,13 @@
         <v>44</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15997,7 +15589,7 @@
         <v>44</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AB117" s="2"/>
       <c r="AC117" t="s" s="2">
@@ -16007,7 +15599,7 @@
         <v>101</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
@@ -16022,16 +15614,16 @@
         <v>64</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>44</v>
@@ -16039,10 +15631,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>44</v>
@@ -16064,13 +15656,13 @@
         <v>44</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16121,7 +15713,7 @@
         <v>44</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -16136,16 +15728,16 @@
         <v>64</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>44</v>
@@ -16153,10 +15745,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>44</v>
@@ -16178,13 +15770,13 @@
         <v>44</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16235,7 +15827,7 @@
         <v>44</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>42</v>
@@ -16250,16 +15842,16 @@
         <v>64</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>44</v>
@@ -16267,7 +15859,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16290,13 +15882,13 @@
         <v>53</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16347,7 +15939,7 @@
         <v>44</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -16362,24 +15954,24 @@
         <v>64</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16402,13 +15994,13 @@
         <v>53</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -16459,7 +16051,7 @@
         <v>44</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -16474,16 +16066,16 @@
         <v>64</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>44</v>
@@ -16491,7 +16083,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16514,13 +16106,13 @@
         <v>44</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16571,7 +16163,7 @@
         <v>44</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -16586,16 +16178,16 @@
         <v>64</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>44</v>
@@ -16603,7 +16195,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16629,13 +16221,13 @@
         <v>163</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16661,13 +16253,13 @@
         <v>44</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>44</v>
@@ -16685,7 +16277,7 @@
         <v>44</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -16700,13 +16292,13 @@
         <v>64</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>44</v>
@@ -16717,7 +16309,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16740,13 +16332,13 @@
         <v>44</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16797,7 +16389,7 @@
         <v>44</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16818,10 +16410,10 @@
         <v>44</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>44</v>
@@ -16829,7 +16421,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16855,13 +16447,13 @@
         <v>163</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16891,7 +16483,7 @@
       </c>
       <c r="X125" s="2"/>
       <c r="Y125" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>44</v>
@@ -16909,7 +16501,7 @@
         <v>44</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16924,24 +16516,24 @@
         <v>64</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16964,16 +16556,16 @@
         <v>44</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17023,7 +16615,7 @@
         <v>44</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -17038,16 +16630,16 @@
         <v>64</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>44</v>
@@ -17055,7 +16647,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17078,13 +16670,13 @@
         <v>53</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -17135,7 +16727,7 @@
         <v>44</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -17150,13 +16742,13 @@
         <v>64</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>44</v>
@@ -17167,7 +16759,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17193,10 +16785,10 @@
         <v>66</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17247,7 +16839,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -17268,7 +16860,7 @@
         <v>44</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>44</v>
@@ -17279,7 +16871,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17302,13 +16894,13 @@
         <v>53</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -17359,7 +16951,7 @@
         <v>44</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -17374,13 +16966,13 @@
         <v>64</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>44</v>
@@ -17391,7 +16983,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17417,14 +17009,14 @@
         <v>129</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>44</v>
@@ -17473,7 +17065,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -17488,13 +17080,13 @@
         <v>64</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>44</v>
@@ -17505,7 +17097,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17531,13 +17123,13 @@
         <v>163</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17563,13 +17155,13 @@
         <v>44</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>44</v>
@@ -17587,7 +17179,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17608,7 +17200,7 @@
         <v>44</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>44</v>
@@ -17619,7 +17211,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17642,13 +17234,13 @@
         <v>44</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17699,7 +17291,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -17714,13 +17306,13 @@
         <v>64</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>44</v>
@@ -17731,7 +17323,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17754,13 +17346,13 @@
         <v>44</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17811,7 +17403,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -17826,13 +17418,13 @@
         <v>64</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>44</v>
@@ -17843,7 +17435,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17866,16 +17458,16 @@
         <v>44</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17925,7 +17517,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17946,7 +17538,7 @@
         <v>44</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>44</v>
@@ -17957,7 +17549,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17980,13 +17572,13 @@
         <v>44</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>143</v>
+        <v>551</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>144</v>
+        <v>552</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -18037,7 +17629,7 @@
         <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>145</v>
+        <v>549</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -18049,16 +17641,16 @@
         <v>44</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>44</v>
+        <v>553</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>146</v>
+        <v>554</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>44</v>
@@ -18069,18 +17661,18 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>44</v>
@@ -18092,17 +17684,15 @@
         <v>44</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -18139,31 +17729,31 @@
         <v>44</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AC136" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>44</v>
@@ -18183,11 +17773,11 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>550</v>
+        <v>122</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18200,26 +17790,24 @@
         <v>44</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>551</v>
+        <v>148</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>552</v>
+        <v>149</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N137" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>44</v>
       </c>
@@ -18267,7 +17855,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>553</v>
+        <v>151</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -18288,7 +17876,7 @@
         <v>44</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>44</v>
@@ -18299,40 +17887,42 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>44</v>
+        <v>558</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>555</v>
+        <v>97</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M138" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N138" t="s" s="2">
-        <v>558</v>
+        <v>126</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>44</v>
@@ -18381,19 +17971,19 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>44</v>
@@ -18402,13 +17992,13 @@
         <v>44</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>560</v>
+        <v>95</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>561</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" hidden="true">
@@ -18433,10 +18023,10 @@
         <v>44</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>563</v>
@@ -18444,10 +18034,10 @@
       <c r="L139" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M139" s="2"/>
-      <c r="N139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>565</v>
       </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>44</v>
       </c>
@@ -18495,7 +18085,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18516,18 +18106,18 @@
         <v>44</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>567</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18538,7 +18128,7 @@
         <v>42</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>44</v>
@@ -18547,23 +18137,19 @@
         <v>44</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>569</v>
+        <v>143</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>44</v>
       </c>
@@ -18587,41 +18173,43 @@
         <v>44</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>573</v>
+        <v>44</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>574</v>
+        <v>44</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA140" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AB140" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD140" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>576</v>
+        <v>145</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>44</v>
@@ -18630,24 +18218,22 @@
         <v>44</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>560</v>
+        <v>146</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>577</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="B141" t="s" s="2">
-        <v>578</v>
-      </c>
+      <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18663,23 +18249,21 @@
         <v>44</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>579</v>
+        <v>148</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>570</v>
+        <v>149</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>44</v>
       </c>
@@ -18703,11 +18287,13 @@
         <v>44</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X141" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y141" t="s" s="2">
-        <v>574</v>
+        <v>44</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>44</v>
@@ -18725,7 +18311,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>576</v>
+        <v>151</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18737,7 +18323,7 @@
         <v>44</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>44</v>
@@ -18746,50 +18332,54 @@
         <v>44</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>560</v>
+        <v>146</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>577</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>44</v>
+        <v>558</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
       </c>
@@ -18837,19 +18427,19 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>44</v>
@@ -18858,18 +18448,18 @@
         <v>44</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>560</v>
+        <v>95</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>577</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18889,23 +18479,19 @@
         <v>44</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>589</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>44</v>
       </c>
@@ -18953,7 +18539,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18974,7 +18560,7 @@
         <v>44</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>44</v>
@@ -18985,7 +18571,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19005,20 +18591,18 @@
         <v>44</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>44</v>
@@ -19043,29 +18627,31 @@
         <v>44</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>597</v>
+        <v>44</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>598</v>
+        <v>44</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AB144" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC144" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD144" t="s" s="2">
-        <v>368</v>
+        <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -19086,22 +18672,20 @@
         <v>44</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>601</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
         <v>44</v>
       </c>
@@ -19119,20 +18703,18 @@
         <v>44</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>163</v>
+        <v>576</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>44</v>
@@ -19157,11 +18739,13 @@
         <v>44</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X145" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y145" t="s" s="2">
-        <v>604</v>
+        <v>44</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>44</v>
@@ -19179,7 +18763,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -19200,18 +18784,18 @@
         <v>44</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>601</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19231,22 +18815,22 @@
         <v>44</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>44</v>
@@ -19271,11 +18855,13 @@
         <v>44</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X146" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y146" t="s" s="2">
-        <v>610</v>
+        <v>44</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>44</v>
@@ -19293,7 +18879,7 @@
         <v>44</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
@@ -19311,25 +18897,23 @@
         <v>44</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>44</v>
+        <v>588</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>613</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
         <v>44</v>
       </c>
@@ -19347,21 +18931,21 @@
         <v>44</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>163</v>
+        <v>591</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>44</v>
       </c>
@@ -19385,11 +18969,13 @@
         <v>44</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X147" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y147" t="s" s="2">
-        <v>619</v>
+        <v>44</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>44</v>
@@ -19407,7 +18993,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19425,25 +19011,23 @@
         <v>44</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>44</v>
+        <v>595</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>622</v>
+        <v>597</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
         <v>44</v>
       </c>
@@ -19461,23 +19045,19 @@
         <v>44</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>163</v>
+        <v>571</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>44</v>
       </c>
@@ -19501,11 +19081,13 @@
         <v>44</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X148" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y148" t="s" s="2">
-        <v>629</v>
+        <v>44</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>44</v>
@@ -19523,7 +19105,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19541,21 +19123,21 @@
         <v>44</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>44</v>
+        <v>601</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>632</v>
+        <v>603</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19566,7 +19148,7 @@
         <v>42</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>44</v>
@@ -19575,18 +19157,20 @@
         <v>44</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19635,13 +19219,13 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>44</v>
@@ -19653,21 +19237,21 @@
         <v>44</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>44</v>
+        <v>608</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>44</v>
+        <v>609</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>638</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19690,13 +19274,13 @@
         <v>44</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>143</v>
+        <v>611</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>144</v>
+        <v>612</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19747,7 +19331,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>145</v>
+        <v>610</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19759,7 +19343,7 @@
         <v>44</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>44</v>
@@ -19768,10 +19352,10 @@
         <v>44</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>146</v>
+        <v>613</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>44</v>
+        <v>484</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19779,18 +19363,18 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>44</v>
@@ -19802,17 +19386,15 @@
         <v>44</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>97</v>
+        <v>550</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>148</v>
+        <v>615</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19849,40 +19431,40 @@
         <v>44</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AC151" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>151</v>
+        <v>614</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>44</v>
+        <v>617</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>146</v>
+        <v>618</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>44</v>
@@ -19893,7 +19475,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19913,21 +19495,19 @@
         <v>44</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>642</v>
+        <v>143</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>643</v>
+        <v>144</v>
       </c>
       <c r="M152" s="2"/>
-      <c r="N152" t="s" s="2">
-        <v>644</v>
-      </c>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>44</v>
       </c>
@@ -19951,13 +19531,13 @@
         <v>44</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>645</v>
+        <v>44</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>646</v>
+        <v>44</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>44</v>
@@ -19975,7 +19555,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>647</v>
+        <v>145</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19987,7 +19567,7 @@
         <v>44</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>44</v>
@@ -19996,29 +19576,29 @@
         <v>44</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>648</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>44</v>
@@ -20027,23 +19607,21 @@
         <v>44</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>650</v>
+        <v>97</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>651</v>
+        <v>148</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>652</v>
+        <v>149</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>44</v>
       </c>
@@ -20091,19 +19669,19 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>655</v>
+        <v>151</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>44</v>
@@ -20112,53 +19690,53 @@
         <v>44</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>631</v>
+        <v>146</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>656</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>44</v>
+        <v>558</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>658</v>
+        <v>97</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>659</v>
+        <v>559</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>660</v>
+        <v>560</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>661</v>
+        <v>125</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>662</v>
+        <v>126</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>44</v>
@@ -20207,19 +19785,19 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>44</v>
@@ -20228,18 +19806,18 @@
         <v>44</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>664</v>
+        <v>95</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>665</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>666</v>
+        <v>622</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20247,7 +19825,7 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F155" t="s" s="2">
         <v>52</v>
@@ -20259,23 +19837,21 @@
         <v>44</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>668</v>
+        <v>624</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>669</v>
+        <v>625</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>44</v>
       </c>
@@ -20299,13 +19875,13 @@
         <v>44</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>44</v>
+        <v>627</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>44</v>
@@ -20323,10 +19899,10 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>672</v>
+        <v>622</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>52</v>
@@ -20341,21 +19917,21 @@
         <v>44</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>44</v>
+        <v>617</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>673</v>
+        <v>629</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>674</v>
+        <v>630</v>
       </c>
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20375,23 +19951,19 @@
         <v>44</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>676</v>
+        <v>163</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>677</v>
+        <v>632</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>680</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>44</v>
       </c>
@@ -20415,13 +19987,11 @@
         <v>44</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X156" s="2"/>
       <c r="Y156" t="s" s="2">
-        <v>44</v>
+        <v>634</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>44</v>
@@ -20439,7 +20009,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>681</v>
+        <v>631</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20457,21 +20027,21 @@
         <v>44</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>44</v>
+        <v>635</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>682</v>
+        <v>636</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>44</v>
+        <v>637</v>
       </c>
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>683</v>
+        <v>638</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20491,21 +20061,19 @@
         <v>44</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>676</v>
+        <v>639</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>684</v>
+        <v>640</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>685</v>
+        <v>641</v>
       </c>
       <c r="M157" s="2"/>
-      <c r="N157" t="s" s="2">
-        <v>686</v>
-      </c>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>44</v>
       </c>
@@ -20553,7 +20121,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20568,13 +20136,13 @@
         <v>64</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>44</v>
+        <v>642</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>44</v>
+        <v>635</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>682</v>
+        <v>643</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>44</v>
@@ -20585,18 +20153,18 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>688</v>
+        <v>644</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>44</v>
+        <v>645</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>44</v>
@@ -20608,15 +20176,17 @@
         <v>44</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>689</v>
+        <v>646</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>690</v>
+        <v>647</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M158" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20665,13 +20235,13 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>688</v>
+        <v>644</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>44</v>
@@ -20683,10 +20253,10 @@
         <v>44</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>692</v>
+        <v>44</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>693</v>
+        <v>650</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>44</v>
@@ -20697,7 +20267,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20708,7 +20278,7 @@
         <v>42</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>44</v>
@@ -20720,15 +20290,17 @@
         <v>44</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>54</v>
+        <v>652</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>143</v>
+        <v>653</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M159" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20777,2646 +20349,38 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>145</v>
+        <v>651</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>44</v>
+        <v>656</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>146</v>
+        <v>657</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="160" hidden="true">
-      <c r="A160" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="161" hidden="true">
-      <c r="A161" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="162" hidden="true">
-      <c r="A162" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="N162" s="2"/>
-      <c r="O162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P162" s="2"/>
-      <c r="Q162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN162" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="163" hidden="true">
-      <c r="A163" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN163" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="164" hidden="true">
-      <c r="A164" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N164" s="2"/>
-      <c r="O164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P164" s="2"/>
-      <c r="Q164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN164" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="165" hidden="true">
-      <c r="A165" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL165" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN165" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="166" hidden="true">
-      <c r="A166" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F166" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P166" s="2"/>
-      <c r="Q166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="167" hidden="true">
-      <c r="A167" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F167" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P167" s="2"/>
-      <c r="Q167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="168" hidden="true">
-      <c r="A168" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="B168" s="2"/>
-      <c r="C168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F168" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P168" s="2"/>
-      <c r="Q168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL168" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AM168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN168" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="169" hidden="true">
-      <c r="A169" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F169" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P169" s="2"/>
-      <c r="Q169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="170" hidden="true">
-      <c r="A170" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F170" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J170" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="K170" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N170" s="2"/>
-      <c r="O170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P170" s="2"/>
-      <c r="Q170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="AL170" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="AM170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN170" t="s" s="2">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="171" hidden="true">
-      <c r="A171" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="B171" s="2"/>
-      <c r="C171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F171" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J171" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P171" s="2"/>
-      <c r="Q171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="AL171" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN171" t="s" s="2">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="172" hidden="true">
-      <c r="A172" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F172" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="N172" s="2"/>
-      <c r="O172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P172" s="2"/>
-      <c r="Q172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK172" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="AL172" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="AM172" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN172" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="173" hidden="true">
-      <c r="A173" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F173" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P173" s="2"/>
-      <c r="Q173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL173" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="AM173" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN173" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="174" hidden="true">
-      <c r="A174" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="B174" s="2"/>
-      <c r="C174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F174" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P174" s="2"/>
-      <c r="Q174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN174" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="175" hidden="true">
-      <c r="A175" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F175" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P175" s="2"/>
-      <c r="Q175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL175" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM175" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN175" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="176" hidden="true">
-      <c r="A176" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F176" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N176" s="2"/>
-      <c r="O176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL176" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM176" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN176" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="177" hidden="true">
-      <c r="A177" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F177" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P177" s="2"/>
-      <c r="Q177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL177" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM177" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN177" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="178" hidden="true">
-      <c r="A178" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="B178" s="2"/>
-      <c r="C178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="N178" s="2"/>
-      <c r="O178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P178" s="2"/>
-      <c r="Q178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="AL178" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN178" t="s" s="2">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="179" hidden="true">
-      <c r="A179" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F179" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J179" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K179" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P179" s="2"/>
-      <c r="Q179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W179" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X179" s="2"/>
-      <c r="Y179" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK179" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="AL179" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="AM179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN179" t="s" s="2">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="180" hidden="true">
-      <c r="A180" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="B180" s="2"/>
-      <c r="C180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F180" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J180" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="K180" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P180" s="2"/>
-      <c r="Q180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI180" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="AL180" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="AM180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN180" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="181" hidden="true">
-      <c r="A181" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F181" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="N181" s="2"/>
-      <c r="O181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P181" s="2"/>
-      <c r="Q181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL181" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="AM181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN181" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="182" hidden="true">
-      <c r="A182" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="B182" s="2"/>
-      <c r="C182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F182" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="N182" s="2"/>
-      <c r="O182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P182" s="2"/>
-      <c r="Q182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="AM182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN182" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN182">
+  <autoFilter ref="A1:AN159">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -23426,7 +20390,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI181">
+  <conditionalFormatting sqref="A2:AI158">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/nswhealthitocorder.xlsx
+++ b/output/nswhealthitocorder.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5715" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5715" uniqueCount="660">
   <si>
     <t>Path</t>
   </si>
@@ -956,7 +956,7 @@
     <t>http://ns.health.nsw.gov.au/fhir/ehealth/itoc/id/scriptid</t>
   </si>
   <si>
-    <t>Prescription number</t>
+    <t>The Order ID value</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -987,6 +987,9 @@
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
   <si>
     <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
@@ -9966,7 +9969,7 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>44</v>
@@ -9987,10 +9990,10 @@
         <v>157</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -10023,16 +10026,16 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -10040,7 +10043,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10066,13 +10069,13 @@
         <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10098,13 +10101,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -10122,7 +10125,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -10137,13 +10140,13 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
@@ -10154,7 +10157,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10180,13 +10183,13 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10215,10 +10218,10 @@
         <v>157</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -10236,7 +10239,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>52</v>
@@ -10251,16 +10254,16 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -10268,7 +10271,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10294,13 +10297,13 @@
         <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10326,13 +10329,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -10350,7 +10353,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10368,13 +10371,13 @@
         <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -10382,7 +10385,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10408,10 +10411,10 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10441,10 +10444,10 @@
         <v>157</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>44</v>
@@ -10462,7 +10465,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10477,16 +10480,16 @@
         <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10494,7 +10497,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10520,13 +10523,13 @@
         <v>217</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10576,7 +10579,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10597,7 +10600,7 @@
         <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
@@ -10608,7 +10611,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10631,13 +10634,13 @@
         <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10688,7 +10691,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10709,7 +10712,7 @@
         <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -10720,7 +10723,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10743,16 +10746,16 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10778,29 +10781,29 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>52</v>
@@ -10815,27 +10818,27 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>44</v>
@@ -10860,13 +10863,13 @@
         <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10892,13 +10895,13 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>44</v>
@@ -10916,7 +10919,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>52</v>
@@ -10931,24 +10934,24 @@
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11060,7 +11063,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11174,7 +11177,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11246,7 +11249,7 @@
         <v>44</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AB79" s="2"/>
       <c r="AC79" t="s" s="2">
@@ -11288,10 +11291,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>44</v>
@@ -11316,10 +11319,10 @@
         <v>175</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>178</v>
@@ -11354,7 +11357,7 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -11404,7 +11407,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11516,7 +11519,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11630,7 +11633,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11672,7 +11675,7 @@
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>44</v>
@@ -11746,7 +11749,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11860,7 +11863,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11974,7 +11977,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12088,7 +12091,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12204,10 +12207,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>44</v>
@@ -12232,10 +12235,10 @@
         <v>175</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>178</v>
@@ -12270,7 +12273,7 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>44</v>
@@ -12320,7 +12323,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12432,7 +12435,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12546,7 +12549,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12588,7 +12591,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -12662,7 +12665,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12776,7 +12779,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12890,7 +12893,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13004,7 +13007,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13120,10 +13123,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>44</v>
@@ -13148,7 +13151,7 @@
         <v>175</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>177</v>
@@ -13186,7 +13189,7 @@
       </c>
       <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>44</v>
@@ -13236,7 +13239,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13348,7 +13351,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13460,10 +13463,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>44</v>
@@ -13485,13 +13488,13 @@
         <v>44</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13574,7 +13577,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13616,7 +13619,7 @@
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>44</v>
@@ -13690,7 +13693,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13804,7 +13807,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13918,7 +13921,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14032,7 +14035,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14148,10 +14151,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>44</v>
@@ -14176,7 +14179,7 @@
         <v>175</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>177</v>
@@ -14214,7 +14217,7 @@
       </c>
       <c r="X105" s="2"/>
       <c r="Y105" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>44</v>
@@ -14264,7 +14267,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14376,7 +14379,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14490,7 +14493,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14532,7 +14535,7 @@
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R108" t="s" s="2">
         <v>44</v>
@@ -14606,7 +14609,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14720,7 +14723,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14834,7 +14837,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14948,7 +14951,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15064,7 +15067,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15090,10 +15093,10 @@
         <v>54</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>228</v>
@@ -15180,10 +15183,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>44</v>
@@ -15205,16 +15208,16 @@
         <v>53</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15264,7 +15267,7 @@
         <v>44</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>52</v>
@@ -15279,24 +15282,24 @@
         <v>64</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15319,16 +15322,16 @@
         <v>53</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15378,7 +15381,7 @@
         <v>44</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>52</v>
@@ -15393,24 +15396,24 @@
         <v>64</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15433,16 +15436,16 @@
         <v>44</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15492,7 +15495,7 @@
         <v>44</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15507,24 +15510,24 @@
         <v>64</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15547,13 +15550,13 @@
         <v>44</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15592,7 +15595,7 @@
         <v>44</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB117" s="2"/>
       <c r="AC117" t="s" s="2">
@@ -15602,7 +15605,7 @@
         <v>101</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
@@ -15617,16 +15620,16 @@
         <v>64</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>44</v>
@@ -15634,10 +15637,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>44</v>
@@ -15659,13 +15662,13 @@
         <v>44</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15716,7 +15719,7 @@
         <v>44</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15731,16 +15734,16 @@
         <v>64</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>44</v>
@@ -15748,10 +15751,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>44</v>
@@ -15773,13 +15776,13 @@
         <v>44</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15830,7 +15833,7 @@
         <v>44</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>42</v>
@@ -15845,16 +15848,16 @@
         <v>64</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>44</v>
@@ -15862,7 +15865,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15885,13 +15888,13 @@
         <v>53</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15942,7 +15945,7 @@
         <v>44</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -15957,24 +15960,24 @@
         <v>64</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15997,13 +16000,13 @@
         <v>53</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -16054,7 +16057,7 @@
         <v>44</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -16069,16 +16072,16 @@
         <v>64</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>44</v>
@@ -16086,7 +16089,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16109,13 +16112,13 @@
         <v>44</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16166,7 +16169,7 @@
         <v>44</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -16181,16 +16184,16 @@
         <v>64</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>44</v>
@@ -16198,7 +16201,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16224,13 +16227,13 @@
         <v>163</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16256,13 +16259,13 @@
         <v>44</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>44</v>
@@ -16280,7 +16283,7 @@
         <v>44</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -16295,13 +16298,13 @@
         <v>64</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>44</v>
@@ -16312,7 +16315,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16335,13 +16338,13 @@
         <v>44</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16392,7 +16395,7 @@
         <v>44</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16413,10 +16416,10 @@
         <v>44</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>44</v>
@@ -16424,7 +16427,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16450,13 +16453,13 @@
         <v>163</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16486,7 +16489,7 @@
       </c>
       <c r="X125" s="2"/>
       <c r="Y125" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>44</v>
@@ -16504,7 +16507,7 @@
         <v>44</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16519,24 +16522,24 @@
         <v>64</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16559,16 +16562,16 @@
         <v>44</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16618,7 +16621,7 @@
         <v>44</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16633,16 +16636,16 @@
         <v>64</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>44</v>
@@ -16650,7 +16653,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16673,13 +16676,13 @@
         <v>53</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16730,7 +16733,7 @@
         <v>44</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -16745,13 +16748,13 @@
         <v>64</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>44</v>
@@ -16762,7 +16765,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16788,10 +16791,10 @@
         <v>66</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16842,7 +16845,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -16863,7 +16866,7 @@
         <v>44</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>44</v>
@@ -16874,7 +16877,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16897,13 +16900,13 @@
         <v>53</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -16954,7 +16957,7 @@
         <v>44</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -16969,13 +16972,13 @@
         <v>64</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>44</v>
@@ -16986,7 +16989,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17012,14 +17015,14 @@
         <v>129</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>44</v>
@@ -17068,7 +17071,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -17083,13 +17086,13 @@
         <v>64</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>44</v>
@@ -17100,7 +17103,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17126,13 +17129,13 @@
         <v>163</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17158,13 +17161,13 @@
         <v>44</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>44</v>
@@ -17182,7 +17185,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17203,7 +17206,7 @@
         <v>44</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>44</v>
@@ -17214,7 +17217,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17237,13 +17240,13 @@
         <v>44</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17294,7 +17297,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -17309,13 +17312,13 @@
         <v>64</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>44</v>
@@ -17326,7 +17329,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17349,13 +17352,13 @@
         <v>44</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17406,7 +17409,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -17421,13 +17424,13 @@
         <v>64</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>44</v>
@@ -17438,7 +17441,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17461,16 +17464,16 @@
         <v>44</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17520,7 +17523,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17541,7 +17544,7 @@
         <v>44</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>44</v>
@@ -17552,7 +17555,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17575,13 +17578,13 @@
         <v>44</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17632,7 +17635,7 @@
         <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17650,10 +17653,10 @@
         <v>44</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>44</v>
@@ -17664,7 +17667,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17776,7 +17779,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17890,11 +17893,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17916,10 +17919,10 @@
         <v>97</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>125</v>
@@ -17974,7 +17977,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18006,7 +18009,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18029,16 +18032,16 @@
         <v>44</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18088,7 +18091,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18109,7 +18112,7 @@
         <v>44</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18120,7 +18123,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18232,7 +18235,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18346,11 +18349,11 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18372,10 +18375,10 @@
         <v>97</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>125</v>
@@ -18430,7 +18433,7 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18462,7 +18465,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18485,13 +18488,13 @@
         <v>44</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -18542,7 +18545,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18563,7 +18566,7 @@
         <v>44</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>44</v>
@@ -18574,7 +18577,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18597,13 +18600,13 @@
         <v>44</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18654,7 +18657,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -18675,7 +18678,7 @@
         <v>44</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>44</v>
@@ -18686,7 +18689,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18709,13 +18712,13 @@
         <v>44</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18766,7 +18769,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -18787,7 +18790,7 @@
         <v>44</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>44</v>
@@ -18798,7 +18801,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18824,16 +18827,16 @@
         <v>252</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>44</v>
@@ -18882,7 +18885,7 @@
         <v>44</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
@@ -18900,10 +18903,10 @@
         <v>44</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>44</v>
@@ -18914,7 +18917,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18937,16 +18940,16 @@
         <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -18996,7 +18999,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19014,21 +19017,21 @@
         <v>44</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19051,13 +19054,13 @@
         <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19108,7 +19111,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19126,21 +19129,21 @@
         <v>44</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19163,16 +19166,16 @@
         <v>44</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -19222,7 +19225,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19240,10 +19243,10 @@
         <v>44</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>44</v>
@@ -19254,7 +19257,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19280,10 +19283,10 @@
         <v>259</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19334,7 +19337,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19355,10 +19358,10 @@
         <v>44</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19366,7 +19369,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19389,13 +19392,13 @@
         <v>44</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19446,7 +19449,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19464,10 +19467,10 @@
         <v>44</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>44</v>
@@ -19478,7 +19481,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19590,7 +19593,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19704,11 +19707,11 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19730,10 +19733,10 @@
         <v>97</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>125</v>
@@ -19788,7 +19791,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -19820,7 +19823,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19843,16 +19846,16 @@
         <v>44</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
@@ -19878,13 +19881,13 @@
         <v>44</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>44</v>
@@ -19902,7 +19905,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>52</v>
@@ -19920,21 +19923,21 @@
         <v>44</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19960,10 +19963,10 @@
         <v>163</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19994,7 +19997,7 @@
       </c>
       <c r="X156" s="2"/>
       <c r="Y156" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>44</v>
@@ -20012,7 +20015,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20030,21 +20033,21 @@
         <v>44</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20067,13 +20070,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20124,7 +20127,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20139,13 +20142,13 @@
         <v>64</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>44</v>
@@ -20156,11 +20159,11 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20179,16 +20182,16 @@
         <v>44</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
@@ -20238,7 +20241,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20259,7 +20262,7 @@
         <v>44</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>44</v>
@@ -20270,7 +20273,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20293,16 +20296,16 @@
         <v>44</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20352,7 +20355,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20367,13 +20370,13 @@
         <v>64</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>44</v>

--- a/output/nswhealthitocorder.xlsx
+++ b/output/nswhealthitocorder.xlsx
@@ -7096,7 +7096,7 @@
         <v>52</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
